--- a/Observed_Months.xlsx
+++ b/Observed_Months.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class project\GCD_BugFlowExperiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADC173C-6CCE-4959-83F4-B702BD41358E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BFA1F1-37EE-4AE3-B3DE-DC87A3B7834B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" xr2:uid="{4D5F94A5-EC80-47A2-9552-2BDF7AEDF745}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -116,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -129,6 +129,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F22E5F1-F2D9-4666-8BD0-1D345629B49D}">
   <dimension ref="A1:M247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="P237" sqref="P237"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -456,34 +459,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="3" t="s">
